--- a/public/cart.xlsx
+++ b/public/cart.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\MJU\node.js\Shoe-Shop\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A21E246-F272-4FEC-9424-42E3AC3A8104}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543E184-82BC-47FA-B101-AFECCE707795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1965" yWindow="2190" windowWidth="11400" windowHeight="6285" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
   <si>
     <t>index</t>
   </si>
@@ -79,6 +79,9 @@
   </si>
   <si>
     <t>https://img.soldout.co.kr/items/2022/10/26/e107f271-b41c-4556-93dd-172fb5cca5bd.png/soldout/resize/564x564/optimize</t>
+  </si>
+  <si>
+    <t>uuid</t>
   </si>
 </sst>
 </file>
@@ -397,103 +400,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD4"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2">
+        <v>1234</v>
+      </c>
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="1">
+      <c r="D2" s="1">
         <v>179000</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
         <v>8</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>9</v>
       </c>
-      <c r="F2" t="s">
+      <c r="G2" t="s">
         <v>10</v>
       </c>
-      <c r="G2" t="s">
+      <c r="H2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3">
+        <v>1234</v>
+      </c>
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="1">
+      <c r="D3" s="1">
         <v>144000</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>8</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>13</v>
       </c>
-      <c r="F3" t="s">
+      <c r="G3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4">
+        <v>5678</v>
+      </c>
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1">
+      <c r="D4" s="1">
         <v>120000</v>
       </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>8</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>16</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>10</v>
       </c>
-      <c r="G4" t="s">
+      <c r="H4" t="s">
         <v>17</v>
       </c>
     </row>

--- a/public/cart.xlsx
+++ b/public/cart.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11113"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\LG\Documents\MJU\node.js\Shoe-Shop\public\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bk/vscode/Shoe-Shop-Backend/public/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7543E184-82BC-47FA-B101-AFECCE707795}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F3D6F02-F568-AB40-96BD-CF4770468CDA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="19396" windowHeight="11475" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="19400" windowHeight="11480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="20">
   <si>
     <t>index</t>
   </si>
@@ -82,18 +82,29 @@
   </si>
   <si>
     <t>uuid</t>
+  </si>
+  <si>
+    <t>46eeab8f-d24c-440f-9199-709e95fa573f</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="맑은 고딕"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -403,12 +414,12 @@
   <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="17"/>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:8">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -434,9 +445,9 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2">
-        <v>1234</v>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -460,9 +471,9 @@
         <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3">
-        <v>1234</v>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>19</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -486,9 +497,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4">
-        <v>5678</v>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>19</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -513,6 +524,7 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/public/cart.xlsx
+++ b/public/cart.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -514,25 +514,25 @@
         <v>3c252b30-4bb2-40cb-90af-e4d752b1c9af</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C5" t="str">
-        <v>나이키 덩크 로우 SP 바시티 로열 (2022)</v>
+        <v>나이키 덩크 하이 레트로 유니버시티 골드 블랙</v>
       </c>
       <c r="D5">
-        <v>179000</v>
+        <v>160000</v>
       </c>
       <c r="E5" t="str">
         <v>나이키/NIKE</v>
       </c>
       <c r="F5" t="str">
-        <v>CU1726-100</v>
+        <v>DD1399-700</v>
       </c>
       <c r="G5" t="str">
         <v>덩크</v>
       </c>
       <c r="H5" t="str">
-        <v>https://img.soldout.co.kr/items/2022/11/07/6cf7c767-3b8c-4b47-9592-e7511384c2cb.png/soldout/resize/564x564/optimize</v>
+        <v>https://img.soldout.co.kr/items/2022/07/08/972abad4-8bb6-41f3-b9c9-f7d95d611b8c.png/soldout/resize/564x564/optimize</v>
       </c>
     </row>
     <row r="6">
@@ -540,31 +540,83 @@
         <v>3c252b30-4bb2-40cb-90af-e4d752b1c9af</v>
       </c>
       <c r="B6">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C6" t="str">
-        <v>나이키 베이퍼와플 사카이 블랙 앤 검</v>
+        <v>나이키 덩크 로우 레트로 화이트 블랙</v>
       </c>
       <c r="D6">
-        <v>395000</v>
+        <v>144000</v>
       </c>
       <c r="E6" t="str">
         <v>나이키/NIKE</v>
       </c>
       <c r="F6" t="str">
-        <v>DD1875-001</v>
+        <v>DD1391-100</v>
       </c>
       <c r="G6" t="str">
-        <v>사카이</v>
+        <v>덩크</v>
       </c>
       <c r="H6" t="str">
-        <v>https://img.soldout.co.kr/items/2022/02/03/badf8ee0-542f-410e-9173-e7beeb4e2adc.png/soldout/resize/564x564/optimize</v>
+        <v>https://img.soldout.co.kr/items/2022/11/04/a8844295-e714-4fb6-92eb-9fa7b613e94e.png/soldout/resize/564x564/optimize</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="str">
+        <v>3c252b30-4bb2-40cb-90af-e4d752b1c9af</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+      <c r="C7" t="str">
+        <v>나이키 덩크 로우 SP 바시티 로열 (2022)</v>
+      </c>
+      <c r="D7">
+        <v>179000</v>
+      </c>
+      <c r="E7" t="str">
+        <v>나이키/NIKE</v>
+      </c>
+      <c r="F7" t="str">
+        <v>CU1726-100</v>
+      </c>
+      <c r="G7" t="str">
+        <v>덩크</v>
+      </c>
+      <c r="H7" t="str">
+        <v>https://img.soldout.co.kr/items/2022/11/07/6cf7c767-3b8c-4b47-9592-e7511384c2cb.png/soldout/resize/564x564/optimize</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="str">
+        <v>3c252b30-4bb2-40cb-90af-e4d752b1c9af</v>
+      </c>
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="str">
+        <v>나이키 덩크 로우 오프화이트 로트 18</v>
+      </c>
+      <c r="D8">
+        <v>505000</v>
+      </c>
+      <c r="E8" t="str">
+        <v>나이키/NIKE</v>
+      </c>
+      <c r="F8" t="str">
+        <v>DJ0950-122</v>
+      </c>
+      <c r="G8" t="str">
+        <v>덩크</v>
+      </c>
+      <c r="H8" t="str">
+        <v>https://img.soldout.co.kr/items/2022/11/02/d15b9a83-a4b0-4f2f-9a71-9d2b829caa40.png/soldout/resize/564x564/optimize</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I6"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:I8"/>
   </ignoredErrors>
 </worksheet>
 </file>